--- a/remap_ville_plugin/CH_ReMaP/archetypes/CONSTRUCTION_STANDARD_SUMMARY.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/CONSTRUCTION_STANDARD_SUMMARY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoraiopoulos\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{807D91EA-2B88-429B-9631-813CB3FDA2D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4850ED45-89D4-4CDE-9EA3-B65E3F574588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -18,10 +18,19 @@
     <sheet name="HVAC_ASSEMBLIES" sheetId="1" r:id="rId3"/>
     <sheet name="SUPPLY_ASSEMBLIES" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="199">
   <si>
     <t>type_hs</t>
   </si>
@@ -159,9 +168,6 @@
     <t>Concrete and Masonry from 2000's to 2020's</t>
   </si>
   <si>
-    <t>Concrete and Masonry  from 2000's to 2020's - Minergie Standard</t>
-  </si>
-  <si>
     <t>YEAR_START</t>
   </si>
   <si>
@@ -297,76 +303,340 @@
     <t>FLOOR_AS6</t>
   </si>
   <si>
-    <t>STANDARD7</t>
-  </si>
-  <si>
-    <t>STANDARD8</t>
-  </si>
-  <si>
-    <t>UR-Stone and Masonry from 1000's to 1920's</t>
-  </si>
-  <si>
-    <t>UR-Concrete and Masonry from 1920's to 1970's</t>
-  </si>
-  <si>
-    <t>UR-Concrete and Masonry from 1970's to 1980's</t>
-  </si>
-  <si>
-    <t>UR-Concrete and Masonry from 1980's to 2000's</t>
-  </si>
-  <si>
-    <t>UR-Concrete and Masonry from 2000's to 2020's</t>
-  </si>
-  <si>
-    <t>UR-Concrete and Masonry  from 2000's to 2020's - Minergie Standard</t>
-  </si>
-  <si>
-    <t>STANDARD9</t>
-  </si>
-  <si>
-    <t>STANDARD10</t>
-  </si>
-  <si>
-    <t>STANDARD11</t>
-  </si>
-  <si>
-    <t>STANDARD12</t>
-  </si>
-  <si>
-    <t>UL-Stone and Masonry from 1000's to 1920's</t>
-  </si>
-  <si>
-    <t>UL-Concrete and Masonry from 1920's to 1970's</t>
-  </si>
-  <si>
-    <t>UL-Concrete and Masonry from 1970's to 1980's</t>
-  </si>
-  <si>
-    <t>UL-Concrete and Masonry from 1980's to 2000's</t>
-  </si>
-  <si>
-    <t>UL-Concrete and Masonry from 2000's to 2020's</t>
-  </si>
-  <si>
-    <t>UL-Concrete and Masonry  from 2000's to 2020's - Minergie Standard</t>
-  </si>
-  <si>
-    <t>STANDARD13</t>
-  </si>
-  <si>
-    <t>STANDARD14</t>
-  </si>
-  <si>
-    <t>STANDARD15</t>
-  </si>
-  <si>
-    <t>STANDARD16</t>
-  </si>
-  <si>
-    <t>STANDARD17</t>
-  </si>
-  <si>
-    <t>STANDARD18</t>
+    <t>Concrete and Masonry  from 2020's to 2040's - Minergie Standard</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>UR-Stone and Masonry from 1000's to 1920's-RES</t>
+  </si>
+  <si>
+    <t>UR-Stone and Masonry from 1000's to 1920's-COM</t>
+  </si>
+  <si>
+    <t>UR-Concrete and Masonry from 1920's to 1970's-RES</t>
+  </si>
+  <si>
+    <t>UR-Concrete and Masonry from 1920's to 1970's-COM</t>
+  </si>
+  <si>
+    <t>UR-Concrete and Masonry from 1970's to 1980's-RES</t>
+  </si>
+  <si>
+    <t>UR-Concrete and Masonry from 1970's to 1980's-COM</t>
+  </si>
+  <si>
+    <t>UR-Concrete and Masonry from 1980's to 2000's-RES</t>
+  </si>
+  <si>
+    <t>UR-Concrete and Masonry from 1980's to 2000's-COM</t>
+  </si>
+  <si>
+    <t>UR-Concrete and Masonry from 2000's to 2020's-RES</t>
+  </si>
+  <si>
+    <t>UR-Concrete and Masonry from 2000's to 2020's-COM</t>
+  </si>
+  <si>
+    <t>UR-Concrete and Masonry  from 2000's to 2020's - Minergie Standard-RES</t>
+  </si>
+  <si>
+    <t>UR-Concrete and Masonry  from 2000's to 2020's - Minergie Standard-COM</t>
+  </si>
+  <si>
+    <t>UL-Stone and Masonry from 1000's to 1920's-RES</t>
+  </si>
+  <si>
+    <t>UL-Stone and Masonry from 1000's to 1920's-COM</t>
+  </si>
+  <si>
+    <t>UL-Concrete and Masonry from 1920's to 1970's-RES</t>
+  </si>
+  <si>
+    <t>UL-Concrete and Masonry from 1920's to 1970's-COM</t>
+  </si>
+  <si>
+    <t>UL-Concrete and Masonry from 1970's to 1980's-RES</t>
+  </si>
+  <si>
+    <t>UL-Concrete and Masonry from 1970's to 1980's-COM</t>
+  </si>
+  <si>
+    <t>UL-Concrete and Masonry from 1980's to 2000's-RES</t>
+  </si>
+  <si>
+    <t>UL-Concrete and Masonry from 1980's to 2000's-COM</t>
+  </si>
+  <si>
+    <t>UL-Concrete and Masonry from 2000's to 2020's-RES</t>
+  </si>
+  <si>
+    <t>UL-Concrete and Masonry from 2000's to 2020's-COM</t>
+  </si>
+  <si>
+    <t>UL-Concrete and Masonry  from 2000's to 2020's - Minergie Standard-RES</t>
+  </si>
+  <si>
+    <t>UL-Concrete and Masonry  from 2000's to 2020's - Minergie Standard-COM</t>
+  </si>
+  <si>
+    <t>LR-Stone and Masonry from 1000's to 1920's-RES</t>
+  </si>
+  <si>
+    <t>LR-Stone and Masonry from 1000's to 1920's-COM</t>
+  </si>
+  <si>
+    <t>LR-Concrete and Masonry from 1920's to 1970's-RES</t>
+  </si>
+  <si>
+    <t>LR-Concrete and Masonry from 1920's to 1970's-COM</t>
+  </si>
+  <si>
+    <t>LR-Concrete and Masonry from 1970's to 1980's-RES</t>
+  </si>
+  <si>
+    <t>LR-Concrete and Masonry from 1970's to 1980's-COM</t>
+  </si>
+  <si>
+    <t>LR-Concrete and Masonry from 1980's to 2000's-RES</t>
+  </si>
+  <si>
+    <t>LR-Concrete and Masonry from 1980's to 2000's-COM</t>
+  </si>
+  <si>
+    <t>LR-Concrete and Masonry from 2000's to 2020's-RES</t>
+  </si>
+  <si>
+    <t>LR-Concrete and Masonry from 2000's to 2020's-COM</t>
+  </si>
+  <si>
+    <t>LR-Concrete and Masonry  from 2000's to 2020's - Minergie Standard-RES</t>
+  </si>
+  <si>
+    <t>LR-Concrete and Masonry  from 2000's to 2020's - Minergie Standard-COM</t>
+  </si>
+  <si>
+    <t>LL-Stone and Masonry from 1000's to 1920's-RES</t>
+  </si>
+  <si>
+    <t>LL-Stone and Masonry from 1000's to 1920's-COM</t>
+  </si>
+  <si>
+    <t>LL-Concrete and Masonry from 1920's to 1970's-RES</t>
+  </si>
+  <si>
+    <t>LL-Concrete and Masonry from 1920's to 1970's-COM</t>
+  </si>
+  <si>
+    <t>LL-Concrete and Masonry from 1970's to 1980's-RES</t>
+  </si>
+  <si>
+    <t>LL-Concrete and Masonry from 1970's to 1980's-COM</t>
+  </si>
+  <si>
+    <t>LL-Concrete and Masonry from 1980's to 2000's-RES</t>
+  </si>
+  <si>
+    <t>LL-Concrete and Masonry from 1980's to 2000's-COM</t>
+  </si>
+  <si>
+    <t>LL-Concrete and Masonry from 2000's to 2020's-RES</t>
+  </si>
+  <si>
+    <t>LL-Concrete and Masonry from 2000's to 2020's-COM</t>
+  </si>
+  <si>
+    <t>LL-Concrete and Masonry  from 2000's to 2020's - Minergie Standard-RES</t>
+  </si>
+  <si>
+    <t>LL-Concrete and Masonry  from 2000's to 2020's - Minergie Standard-COM</t>
+  </si>
+  <si>
+    <t>ROOF_AS5</t>
+  </si>
+  <si>
+    <t>WALL_AS10</t>
+  </si>
+  <si>
+    <t>FLOOR_AS5</t>
+  </si>
+  <si>
+    <t>FLOOR_AS7</t>
+  </si>
+  <si>
+    <t>FLOOR_AS2</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS4</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS7</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS4</t>
+  </si>
+  <si>
+    <t>SUPPLY_COOLING_AS1</t>
+  </si>
+  <si>
+    <t>HVAC_HEATING_AS2</t>
+  </si>
+  <si>
+    <t>HVAC_HOTWATER_AS2</t>
+  </si>
+  <si>
+    <t>HVAC_COOLING_AS2</t>
+  </si>
+  <si>
+    <t>HVAC_COOLING_AS3</t>
+  </si>
+  <si>
+    <t>HVAC_VENTILATION_AS3</t>
+  </si>
+  <si>
+    <t>STANDARD1Sr</t>
+  </si>
+  <si>
+    <t>STANDARD1Sc</t>
+  </si>
+  <si>
+    <t>STANDARD2Sr</t>
+  </si>
+  <si>
+    <t>STANDARD2Sc</t>
+  </si>
+  <si>
+    <t>STANDARD3Sr</t>
+  </si>
+  <si>
+    <t>STANDARD3Sc</t>
+  </si>
+  <si>
+    <t>STANDARD4Sr</t>
+  </si>
+  <si>
+    <t>STANDARD4Sc</t>
+  </si>
+  <si>
+    <t>STANDARD5Sr</t>
+  </si>
+  <si>
+    <t>STANDARD5Sc</t>
+  </si>
+  <si>
+    <t>STANDARD6Sr</t>
+  </si>
+  <si>
+    <t>STANDARD6Sc</t>
+  </si>
+  <si>
+    <t>STANDARD1Tr</t>
+  </si>
+  <si>
+    <t>STANDARD1Tc</t>
+  </si>
+  <si>
+    <t>STANDARD2Tr</t>
+  </si>
+  <si>
+    <t>STANDARD2Tc</t>
+  </si>
+  <si>
+    <t>STANDARD3Tr</t>
+  </si>
+  <si>
+    <t>STANDARD3Tc</t>
+  </si>
+  <si>
+    <t>STANDARD4Tr</t>
+  </si>
+  <si>
+    <t>STANDARD4Tc</t>
+  </si>
+  <si>
+    <t>STANDARD5Tr</t>
+  </si>
+  <si>
+    <t>STANDARD5Tc</t>
+  </si>
+  <si>
+    <t>STANDARD6Tr</t>
+  </si>
+  <si>
+    <t>STANDARD6Tc</t>
+  </si>
+  <si>
+    <t>STANDARD1Ur</t>
+  </si>
+  <si>
+    <t>STANDARD1Uc</t>
+  </si>
+  <si>
+    <t>STANDARD2Ur</t>
+  </si>
+  <si>
+    <t>STANDARD2Uc</t>
+  </si>
+  <si>
+    <t>STANDARD3Ur</t>
+  </si>
+  <si>
+    <t>STANDARD3Uc</t>
+  </si>
+  <si>
+    <t>STANDARD4Ur</t>
+  </si>
+  <si>
+    <t>STANDARD4Uc</t>
+  </si>
+  <si>
+    <t>STANDARD5Ur</t>
+  </si>
+  <si>
+    <t>STANDARD5Uc</t>
+  </si>
+  <si>
+    <t>STANDARD6Ur</t>
+  </si>
+  <si>
+    <t>STANDARD6Uc</t>
+  </si>
+  <si>
+    <t>STANDARD1Fr</t>
+  </si>
+  <si>
+    <t>STANDARD1Fc</t>
+  </si>
+  <si>
+    <t>STANDARD2Fr</t>
+  </si>
+  <si>
+    <t>STANDARD2Fc</t>
+  </si>
+  <si>
+    <t>STANDARD3Fr</t>
+  </si>
+  <si>
+    <t>STANDARD3Fc</t>
+  </si>
+  <si>
+    <t>STANDARD4Fr</t>
+  </si>
+  <si>
+    <t>STANDARD4Fc</t>
+  </si>
+  <si>
+    <t>STANDARD5Fr</t>
+  </si>
+  <si>
+    <t>STANDARD5Fc</t>
+  </si>
+  <si>
+    <t>STANDARD6Fr</t>
+  </si>
+  <si>
+    <t>STANDARD6Fc</t>
   </si>
 </sst>
 </file>
@@ -981,10 +1251,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1248,21 +1514,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.26953125" customWidth="1"/>
+    <col min="2" max="2" width="70.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1270,13 +1536,13 @@
         <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1284,13 +1550,13 @@
         <v>37</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="11">
         <v>1920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1298,13 +1564,13 @@
         <v>38</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="11">
         <v>1970</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1312,13 +1578,13 @@
         <v>39</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="11">
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1326,13 +1592,13 @@
         <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="11">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1340,237 +1606,741 @@
         <v>41</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="12">
         <v>2040</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D7" s="12">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="11">
         <v>1920</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D12" s="11">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="11">
         <v>1970</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="10" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D26" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="12">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="11">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="11">
         <v>1980</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="11">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="11">
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="9" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="12">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="12">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="12">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="11">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="11">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D46" s="11">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="11">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="11">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="11">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="12">
         <v>2040</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="12">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="12">
         <v>2040</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="12">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="12">
-        <v>2040</v>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="12">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="12">
+        <v>2060</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:D3 C4:C7" numberStoredAsText="1"/>
+    <ignoredError sqref="C2:D3 C4:C6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1328125" style="1"/>
+    <col min="19" max="19" width="10.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1587,16 +2357,16 @@
         <v>7</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>4</v>
@@ -1629,36 +2399,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K2" s="2">
         <v>0.82</v>
@@ -1689,36 +2459,36 @@
       </c>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2">
         <v>0.82</v>
@@ -1749,36 +2519,36 @@
       </c>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K4" s="2">
         <v>0.82</v>
@@ -1809,36 +2579,36 @@
       </c>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K5" s="2">
         <v>0.82</v>
@@ -1869,36 +2639,36 @@
       </c>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K6" s="2">
         <v>0.82</v>
@@ -1928,36 +2698,36 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" s="2">
         <v>0.82</v>
@@ -1987,66 +2757,2840 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="K20" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="F21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
         <v>0.15</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q28" s="2">
         <v>0.15</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R28" s="2">
         <v>0.15</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S28" s="2">
         <v>0.15</v>
       </c>
     </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N38" s="8">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N41" s="8">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N44" s="8">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N45" s="8">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N46" s="8">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N47" s="8">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R47" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N48" s="8">
+        <v>0</v>
+      </c>
+      <c r="O48" s="7">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="R48" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N49" s="8">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="R49" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N50" s="8">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R50" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N51" s="8">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="R51" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N52" s="8">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R52" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N53" s="8">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R53" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N54" s="8">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R54" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="N55" s="8">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R55" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2054,29 +5598,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.40625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.54296875" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1328125" style="1"/>
+    <col min="9" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -2108,24 +5652,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
@@ -2140,24 +5684,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>19</v>
@@ -2172,24 +5716,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -2204,24 +5748,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>19</v>
@@ -2236,24 +5780,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>19</v>
@@ -2268,24 +5812,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>19</v>
@@ -2300,24 +5844,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>19</v>
@@ -2329,6 +5873,1510 @@
         <v>21</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2340,23 +7388,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="1"/>
+    <col min="6" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -2373,126 +7421,926 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>61</v>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2504,15 +8352,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -2682,6 +8521,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
@@ -2699,14 +8547,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2722,4 +8562,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/remap_ville_plugin/CH_ReMaP/archetypes/CONSTRUCTION_STANDARD_SUMMARY.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/CONSTRUCTION_STANDARD_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoraiopoulos\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4850ED45-89D4-4CDE-9EA3-B65E3F574588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1B15B5-9C82-45A9-AC79-43AD0F378A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -1516,19 +1516,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" customWidth="1"/>
-    <col min="2" max="2" width="70.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="70.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>153</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>154</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>155</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>156</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>157</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>158</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>159</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>160</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>161</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>162</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>163</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>164</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>165</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>166</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>167</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>168</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>169</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>170</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>171</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>173</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>174</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>175</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>177</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>179</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>180</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>181</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>182</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>183</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>185</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>186</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>187</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>188</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>189</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>190</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>191</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>192</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>193</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>194</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>195</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>196</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>197</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>198</v>
       </c>
@@ -2318,29 +2318,29 @@
       <selection pane="bottomRight" activeCell="A8" sqref="A8:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.08984375" style="1"/>
+    <col min="16" max="16" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>153</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>154</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>155</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>156</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>157</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>158</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>159</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>160</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>161</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>162</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>163</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>164</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>165</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>166</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>167</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>168</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>169</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>170</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>171</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>173</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>174</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>175</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>177</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>179</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>180</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>181</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>182</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>183</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>185</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>186</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>187</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>188</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>189</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>190</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>191</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>192</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>193</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>194</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>195</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>196</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>197</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>198</v>
       </c>
@@ -5607,20 +5607,20 @@
       <selection pane="bottomRight" activeCell="A8" sqref="A8:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>153</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>154</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>155</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>156</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>157</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>158</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>159</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>160</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>161</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>162</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>163</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>164</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>165</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>166</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>167</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>168</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>169</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>170</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>171</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>173</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>174</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>175</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>177</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>179</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>180</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>181</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>182</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>183</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>185</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>186</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>187</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>188</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>189</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>190</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>191</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>192</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>193</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>194</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>195</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>196</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>197</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>198</v>
       </c>
@@ -7390,21 +7390,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="15.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>153</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>154</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>155</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>156</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>157</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>158</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>159</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>160</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>161</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>162</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>163</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>164</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>165</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>166</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>167</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>168</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>169</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>170</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>171</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>173</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>174</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>175</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>177</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>179</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>180</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>181</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>182</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>183</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>185</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>186</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>187</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>188</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>189</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>190</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>191</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>192</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>193</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>194</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>195</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>196</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>197</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>198</v>
       </c>
@@ -8346,12 +8346,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -8521,16 +8530,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -8546,7 +8554,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8562,12 +8570,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/remap_ville_plugin/CH_ReMaP/archetypes/CONSTRUCTION_STANDARD_SUMMARY.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/CONSTRUCTION_STANDARD_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoraiopoulos\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1B15B5-9C82-45A9-AC79-43AD0F378A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4850ED45-89D4-4CDE-9EA3-B65E3F574588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -1516,19 +1516,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="70.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.26953125" customWidth="1"/>
+    <col min="2" max="2" width="70.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>153</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>154</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>155</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>156</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>157</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>158</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>159</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>160</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>161</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>162</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>163</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>164</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>165</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>166</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>167</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>168</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>169</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>170</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>171</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>173</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>174</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>175</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>177</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>179</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>180</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>181</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>182</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>183</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>185</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>186</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>187</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>188</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>189</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>190</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>191</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>192</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>193</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>194</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>195</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>196</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>197</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>198</v>
       </c>
@@ -2318,29 +2318,29 @@
       <selection pane="bottomRight" activeCell="A8" sqref="A8:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>153</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>154</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>155</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>156</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>157</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>158</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>159</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>160</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>161</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>162</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>163</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>164</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>165</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>166</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>167</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>168</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>169</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>170</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>171</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>173</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>174</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>175</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>177</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>179</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>180</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>181</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>182</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>183</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>185</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>186</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>187</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>188</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>189</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>190</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>191</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>192</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>193</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>194</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>195</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>196</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>197</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>198</v>
       </c>
@@ -5607,20 +5607,20 @@
       <selection pane="bottomRight" activeCell="A8" sqref="A8:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>153</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>154</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>155</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>156</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>157</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>158</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>159</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>160</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>161</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>162</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>163</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>164</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>165</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>166</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>167</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>168</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>169</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>170</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>171</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>173</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>174</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>175</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>177</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>179</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>180</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>181</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>182</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>183</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>185</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>186</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>187</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>188</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>189</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>190</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>191</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>192</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>193</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>194</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>195</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>196</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>197</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>198</v>
       </c>
@@ -7390,21 +7390,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>153</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>154</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>155</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>156</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>157</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>158</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>159</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>160</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>161</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>162</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>163</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>164</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>165</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>166</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>167</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>168</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>169</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>170</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>171</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>173</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>174</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>175</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>177</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>179</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>180</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>181</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>182</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>183</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>184</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>185</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>186</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>187</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>188</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>189</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>190</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>191</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>192</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>193</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>194</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>195</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>196</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>197</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>198</v>
       </c>
@@ -8346,21 +8346,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -8530,15 +8521,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -8554,7 +8546,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8570,4 +8562,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/remap_ville_plugin/CH_ReMaP/archetypes/CONSTRUCTION_STANDARD_SUMMARY.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/CONSTRUCTION_STANDARD_SUMMARY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoraiopoulos\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1B15B5-9C82-45A9-AC79-43AD0F378A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E25C40-6A76-448A-B0B7-D2EC95059DEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="4065" windowWidth="38640" windowHeight="21240" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="203">
   <si>
     <t>type_hs</t>
   </si>
@@ -471,15 +471,9 @@
     <t>SUPPLY_HEATING_AS4</t>
   </si>
   <si>
-    <t>SUPPLY_HEATING_AS7</t>
-  </si>
-  <si>
     <t>SUPPLY_HOTWATER_AS4</t>
   </si>
   <si>
-    <t>SUPPLY_COOLING_AS1</t>
-  </si>
-  <si>
     <t>HVAC_HEATING_AS2</t>
   </si>
   <si>
@@ -637,6 +631,24 @@
   </si>
   <si>
     <t>STANDARD6Fc</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS12</t>
+  </si>
+  <si>
+    <t>SUPPLY_HEATING_AS13</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS12</t>
+  </si>
+  <si>
+    <t>SUPPLY_HOTWATER_AS13</t>
+  </si>
+  <si>
+    <t>SUPPLY_COOLING_AS5</t>
+  </si>
+  <si>
+    <t>SUPPLY_COOLING_AS6</t>
   </si>
 </sst>
 </file>
@@ -1516,19 +1528,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="70.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.26171875" customWidth="1"/>
+    <col min="2" max="2" width="70.26171875" customWidth="1"/>
+    <col min="3" max="3" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1542,7 +1554,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1556,7 +1568,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1570,7 +1582,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1584,7 +1596,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1598,7 +1610,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1612,7 +1624,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1626,9 +1638,9 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>89</v>
@@ -1640,9 +1652,9 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>90</v>
@@ -1654,9 +1666,9 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>91</v>
@@ -1668,9 +1680,9 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>92</v>
@@ -1682,9 +1694,9 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>93</v>
@@ -1696,9 +1708,9 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>94</v>
@@ -1710,9 +1722,9 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>95</v>
@@ -1724,9 +1736,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>96</v>
@@ -1738,9 +1750,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>97</v>
@@ -1752,9 +1764,9 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>98</v>
@@ -1766,9 +1778,9 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>99</v>
@@ -1780,9 +1792,9 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>100</v>
@@ -1794,9 +1806,9 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>101</v>
@@ -1808,9 +1820,9 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>102</v>
@@ -1822,9 +1834,9 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>103</v>
@@ -1836,9 +1848,9 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>104</v>
@@ -1850,9 +1862,9 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>105</v>
@@ -1864,9 +1876,9 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>106</v>
@@ -1878,9 +1890,9 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>107</v>
@@ -1892,9 +1904,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>108</v>
@@ -1906,9 +1918,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>109</v>
@@ -1920,9 +1932,9 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>110</v>
@@ -1934,9 +1946,9 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>111</v>
@@ -1948,9 +1960,9 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>112</v>
@@ -1962,9 +1974,9 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>113</v>
@@ -1976,9 +1988,9 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>114</v>
@@ -1990,9 +2002,9 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>115</v>
@@ -2004,9 +2016,9 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>116</v>
@@ -2018,9 +2030,9 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>117</v>
@@ -2032,9 +2044,9 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>118</v>
@@ -2046,9 +2058,9 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>119</v>
@@ -2060,9 +2072,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>120</v>
@@ -2074,9 +2086,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>121</v>
@@ -2088,9 +2100,9 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>122</v>
@@ -2102,9 +2114,9 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>123</v>
@@ -2116,9 +2128,9 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>124</v>
@@ -2130,9 +2142,9 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>125</v>
@@ -2144,9 +2156,9 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>126</v>
@@ -2158,9 +2170,9 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>127</v>
@@ -2172,9 +2184,9 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>128</v>
@@ -2186,9 +2198,9 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>129</v>
@@ -2200,9 +2212,9 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>130</v>
@@ -2214,9 +2226,9 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>131</v>
@@ -2228,9 +2240,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>132</v>
@@ -2242,9 +2254,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>133</v>
@@ -2256,9 +2268,9 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>134</v>
@@ -2270,9 +2282,9 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>135</v>
@@ -2284,9 +2296,9 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>136</v>
@@ -2315,32 +2327,32 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:A55"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26171875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.26171875" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="10.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -2399,7 +2411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -2459,7 +2471,7 @@
       </c>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2519,7 +2531,7 @@
       </c>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -2579,7 +2591,7 @@
       </c>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -2639,7 +2651,7 @@
       </c>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2698,7 +2710,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2757,9 +2769,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>77</v>
@@ -2816,9 +2828,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>77</v>
@@ -2875,9 +2887,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>78</v>
@@ -2934,9 +2946,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>78</v>
@@ -2993,9 +3005,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>78</v>
@@ -3052,9 +3064,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>78</v>
@@ -3111,9 +3123,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>77</v>
@@ -3170,9 +3182,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>77</v>
@@ -3229,9 +3241,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>77</v>
@@ -3288,9 +3300,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>77</v>
@@ -3347,9 +3359,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>77</v>
@@ -3406,9 +3418,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>77</v>
@@ -3465,9 +3477,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>77</v>
@@ -3524,9 +3536,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>77</v>
@@ -3583,9 +3595,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>78</v>
@@ -3642,9 +3654,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>78</v>
@@ -3701,9 +3713,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>78</v>
@@ -3760,9 +3772,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>78</v>
@@ -3819,9 +3831,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>77</v>
@@ -3878,9 +3890,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>77</v>
@@ -3937,9 +3949,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>77</v>
@@ -3996,9 +4008,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>77</v>
@@ -4055,9 +4067,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>77</v>
@@ -4114,9 +4126,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>77</v>
@@ -4173,9 +4185,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -4232,9 +4244,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
@@ -4291,9 +4303,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>78</v>
@@ -4350,9 +4362,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>78</v>
@@ -4409,9 +4421,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>78</v>
@@ -4468,9 +4480,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>78</v>
@@ -4527,9 +4539,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>77</v>
@@ -4586,9 +4598,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>77</v>
@@ -4645,9 +4657,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>77</v>
@@ -4704,9 +4716,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>77</v>
@@ -4763,9 +4775,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>77</v>
@@ -4822,9 +4834,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>77</v>
@@ -4881,9 +4893,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>77</v>
@@ -4940,9 +4952,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>77</v>
@@ -4999,9 +5011,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>78</v>
@@ -5058,9 +5070,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>78</v>
@@ -5117,9 +5129,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>78</v>
@@ -5176,9 +5188,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>78</v>
@@ -5235,9 +5247,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>77</v>
@@ -5294,9 +5306,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>77</v>
@@ -5353,9 +5365,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>77</v>
@@ -5412,9 +5424,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>77</v>
@@ -5471,9 +5483,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>77</v>
@@ -5530,9 +5542,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>77</v>
@@ -5604,23 +5616,23 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:A55"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44:F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.41796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.41796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -5652,7 +5664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -5684,7 +5696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -5716,7 +5728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -5748,7 +5760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -5780,7 +5792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -5812,7 +5824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -5844,18 +5856,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>61</v>
@@ -5876,24 +5888,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>19</v>
@@ -5908,24 +5920,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>19</v>
@@ -5940,18 +5952,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>63</v>
@@ -5972,24 +5984,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>19</v>
@@ -6004,18 +6016,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>63</v>
@@ -6036,24 +6048,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>19</v>
@@ -6068,18 +6080,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>63</v>
@@ -6100,24 +6112,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>19</v>
@@ -6132,18 +6144,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>63</v>
@@ -6164,18 +6176,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>63</v>
@@ -6196,18 +6208,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>63</v>
@@ -6228,18 +6240,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>61</v>
@@ -6260,24 +6272,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>19</v>
@@ -6292,24 +6304,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>19</v>
@@ -6324,18 +6336,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>63</v>
@@ -6356,24 +6368,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>19</v>
@@ -6388,18 +6400,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
@@ -6420,24 +6432,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>19</v>
@@ -6452,18 +6464,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -6484,24 +6496,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>19</v>
@@ -6516,18 +6528,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>63</v>
@@ -6548,18 +6560,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>63</v>
@@ -6580,18 +6592,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>63</v>
@@ -6612,18 +6624,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>61</v>
@@ -6644,24 +6656,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>19</v>
@@ -6676,9 +6688,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>50</v>
@@ -6687,13 +6699,13 @@
         <v>51</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>19</v>
@@ -6708,9 +6720,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>50</v>
@@ -6719,7 +6731,7 @@
         <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>63</v>
@@ -6740,9 +6752,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>50</v>
@@ -6751,13 +6763,13 @@
         <v>51</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>19</v>
@@ -6772,9 +6784,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>50</v>
@@ -6783,7 +6795,7 @@
         <v>51</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>63</v>
@@ -6804,9 +6816,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>50</v>
@@ -6815,13 +6827,13 @@
         <v>51</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>19</v>
@@ -6836,9 +6848,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>50</v>
@@ -6847,7 +6859,7 @@
         <v>51</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>63</v>
@@ -6868,9 +6880,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>50</v>
@@ -6879,13 +6891,13 @@
         <v>51</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>19</v>
@@ -6900,9 +6912,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>50</v>
@@ -6911,7 +6923,7 @@
         <v>51</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>63</v>
@@ -6932,9 +6944,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>50</v>
@@ -6943,7 +6955,7 @@
         <v>51</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>63</v>
@@ -6964,9 +6976,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>50</v>
@@ -6975,7 +6987,7 @@
         <v>51</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>63</v>
@@ -6996,18 +7008,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>61</v>
@@ -7028,24 +7040,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>19</v>
@@ -7060,24 +7072,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>19</v>
@@ -7092,18 +7104,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>63</v>
@@ -7124,24 +7136,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>19</v>
@@ -7156,18 +7168,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>63</v>
@@ -7188,24 +7200,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>19</v>
@@ -7220,18 +7232,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>63</v>
@@ -7252,24 +7264,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>19</v>
@@ -7284,18 +7296,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>63</v>
@@ -7316,18 +7328,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>63</v>
@@ -7348,18 +7360,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>63</v>
@@ -7381,6 +7393,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7391,20 +7404,20 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A55"/>
+      <selection activeCell="D46" sqref="D46:D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.15625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.83984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -7421,7 +7434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7438,7 +7451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -7455,7 +7468,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -7472,7 +7485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -7489,7 +7502,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -7506,7 +7519,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -7523,15 +7536,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>59</v>
@@ -7540,15 +7553,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>59</v>
@@ -7557,185 +7570,185 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>59</v>
@@ -7744,15 +7757,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>59</v>
@@ -7761,185 +7774,185 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>59</v>
@@ -7948,15 +7961,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>59</v>
@@ -7965,185 +7978,185 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>59</v>
@@ -8152,15 +8165,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>59</v>
@@ -8169,171 +8182,171 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>60</v>
@@ -8346,21 +8359,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -8530,10 +8528,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8555,19 +8578,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/remap_ville_plugin/CH_ReMaP/archetypes/CONSTRUCTION_STANDARD_SUMMARY.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/CONSTRUCTION_STANDARD_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoraiopoulos\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E25C40-6A76-448A-B0B7-D2EC95059DEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D55EDC7-80A8-42B9-9F25-3557C5856A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="4065" windowWidth="38640" windowHeight="21240" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="4065" windowWidth="38640" windowHeight="21240" tabRatio="785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -1528,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -5612,11 +5612,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F44" sqref="F44:F55"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6696,7 +6696,7 @@
         <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>145</v>
@@ -6728,7 +6728,7 @@
         <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>145</v>
@@ -6760,7 +6760,7 @@
         <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>145</v>
@@ -6792,7 +6792,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>145</v>
@@ -6824,7 +6824,7 @@
         <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>145</v>
@@ -6856,7 +6856,7 @@
         <v>50</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>145</v>
@@ -6888,7 +6888,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>145</v>
@@ -6920,7 +6920,7 @@
         <v>50</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>145</v>
@@ -6952,7 +6952,7 @@
         <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>145</v>
@@ -6984,7 +6984,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>145</v>
@@ -7404,7 +7404,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:D55"/>
+      <selection activeCell="A32" sqref="A32:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7944,7 +7944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
         <v>173</v>
       </c>
@@ -8359,6 +8359,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -8528,12 +8534,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8544,6 +8544,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8561,22 +8577,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
   <ds:schemaRefs>

--- a/remap_ville_plugin/CH_ReMaP/archetypes/CONSTRUCTION_STANDARD_SUMMARY.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/CONSTRUCTION_STANDARD_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoraiopoulos\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D55EDC7-80A8-42B9-9F25-3557C5856A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C36846-6E35-4365-97FA-33778A2365A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="4065" windowWidth="38640" windowHeight="21240" tabRatio="785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="2415" windowWidth="21600" windowHeight="12495" tabRatio="785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
@@ -1532,15 +1532,15 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.26171875" customWidth="1"/>
-    <col min="2" max="2" width="70.26171875" customWidth="1"/>
-    <col min="3" max="3" width="11.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="70.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>149</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>150</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>151</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>152</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>153</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>154</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>155</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>156</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>158</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>159</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>160</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>161</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>162</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>163</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>164</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>165</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>166</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>167</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>168</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>169</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>170</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>171</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>172</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>173</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>174</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>175</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>176</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>177</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>178</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>179</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>180</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>181</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>182</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>183</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>184</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>185</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>186</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>187</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>188</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>189</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>190</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>191</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>192</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>193</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>194</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>195</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>196</v>
       </c>
@@ -2330,29 +2330,29 @@
       <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.15625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.26171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.68359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.15625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.15625" style="1"/>
+    <col min="16" max="16" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>149</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>150</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>151</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>152</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>153</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>154</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>155</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>156</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>158</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>159</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>160</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>161</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>162</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>163</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>164</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>165</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>166</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>167</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>168</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>169</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>170</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>171</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>172</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>173</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>174</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>175</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>176</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>177</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>178</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>179</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>180</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>181</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>182</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>183</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>184</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>185</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>186</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>187</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>188</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>189</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>190</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>191</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>192</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>193</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>194</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>195</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>196</v>
       </c>
@@ -5613,26 +5613,26 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C44" sqref="C44:C55"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.41796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.41796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.68359375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.15625" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>149</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>150</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>151</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>152</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>153</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>154</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>155</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>156</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>158</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>159</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>160</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>161</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>162</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>163</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>164</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>165</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>166</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>167</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>168</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>169</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>170</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>171</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>172</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>173</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>174</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>175</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>145</v>
@@ -6720,7 +6720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>176</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>177</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>145</v>
@@ -6784,7 +6784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>178</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>179</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>145</v>
@@ -6848,7 +6848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>180</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>181</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>145</v>
@@ -6912,7 +6912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>182</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>183</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>145</v>
@@ -6976,7 +6976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>184</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>185</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>186</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>187</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>145</v>
@@ -7104,7 +7104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>188</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>189</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>145</v>
@@ -7168,7 +7168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>190</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>191</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>145</v>
@@ -7232,7 +7232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>192</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>193</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>145</v>
@@ -7296,7 +7296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>194</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>195</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>145</v>
@@ -7360,7 +7360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>196</v>
       </c>
@@ -7403,21 +7403,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD43"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.15625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.83984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.15625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.15625" style="1"/>
+    <col min="1" max="1" width="15.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>149</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>150</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>151</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>152</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>153</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>154</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>155</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>156</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>158</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>159</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>160</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>161</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>162</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>163</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>164</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>165</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>166</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>167</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>168</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>169</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>170</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>171</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>172</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>173</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>174</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>175</v>
       </c>
@@ -7989,13 +7989,13 @@
         <v>199</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>176</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>177</v>
       </c>
@@ -8023,13 +8023,13 @@
         <v>199</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>178</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>179</v>
       </c>
@@ -8057,13 +8057,13 @@
         <v>199</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>180</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>181</v>
       </c>
@@ -8091,13 +8091,13 @@
         <v>199</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>182</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>183</v>
       </c>
@@ -8125,13 +8125,13 @@
         <v>200</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>184</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>185</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>186</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>187</v>
       </c>
@@ -8193,13 +8193,13 @@
         <v>199</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>188</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>189</v>
       </c>
@@ -8227,13 +8227,13 @@
         <v>199</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>190</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>191</v>
       </c>
@@ -8261,13 +8261,13 @@
         <v>199</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>192</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>193</v>
       </c>
@@ -8295,13 +8295,13 @@
         <v>199</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>194</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>195</v>
       </c>
@@ -8329,13 +8329,13 @@
         <v>200</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>196</v>
       </c>
@@ -8365,6 +8365,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4119BA2A2C9A34A9ABDCD539C093B2A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2036187cb88b360b5a6de576d0a5f2f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be70d004-d1e5-4317-a402-eff109a4a2bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63961df46f11abd186e13992df6f3c7" ns3:_="">
     <xsd:import namespace="be70d004-d1e5-4317-a402-eff109a4a2bb"/>
@@ -8534,15 +8543,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50FB2592-98F2-47F2-9116-BDE7AE919D54}">
   <ds:schemaRefs>
@@ -8560,6 +8560,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02AC8DD-FE6B-486F-A4E4-4D415B112715}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8575,12 +8583,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE0E5F9-FF42-4597-A9B4-295F640F8C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>